--- a/news/doc/剩余工作计划表.xlsx
+++ b/news/doc/剩余工作计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>视频在线转码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,42 @@
   </si>
   <si>
     <t>系统安全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台ui调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台UI调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估工作量（单位：天）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,95 +475,225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/news/doc/剩余工作计划表.xlsx
+++ b/news/doc/剩余工作计划表.xlsx
@@ -18,11 +18,59 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
+    <t>前台ui调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估工作量（单位：天）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台UI调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排行榜（点击，评论）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计报表，统计访问量，评论量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水印方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统安全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专题动态布局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>视频在线转码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>专题动态布局</t>
+    <t>活动发布，支持地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -30,18 +78,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>活动发布，支持地图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计报表，统计访问量，评论量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编辑考核</t>
-  </si>
-  <si>
-    <t>排行榜（点击，评论）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -53,7 +94,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>水印方案</t>
+    <t>待定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -74,46 +115,6 @@
   </si>
   <si>
     <t>微信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统安全</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前台ui调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台UI调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预估工作量（单位：天）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,28 +138,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -166,14 +175,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -475,225 +531,226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection sqref="A1:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/news/doc/剩余工作计划表.xlsx
+++ b/news/doc/剩余工作计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>前台ui调整</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,14 @@
   </si>
   <si>
     <t>微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水印管理方案可以添加不同的水印方案，并设置水印是否开启。每种水印方案都可以自由的选择水印图片、位置、透明度、添加限制等参数。可以设置一个水印方案为默认方案。当插入图片时可以自由选择是否添加水印、采用何种方案添加水印。图片编辑器中嵌入水印方案。在编辑图片时可以对任何图片添加水印，并且选择后台默认添加的水印方案。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统前台页面按频道提供点击榜和评论榜，并且可以分别查询本月、本周以及24小时内的点击及评论排行，方便网友阅读。后台排行榜支持按照PV、评论量及digg导出excel文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,225 +539,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C19"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.625" customWidth="1"/>
+    <col min="4" max="4" width="29.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
